--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -7,14 +7,21 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="2月 " sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月 '!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$A$6:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>かんたん家計簿</t>
     <rPh sb="4" eb="7">
@@ -106,6 +113,75 @@
     <t>お年玉</t>
     <rPh sb="1" eb="3">
       <t>トシダマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>趣味・娯楽</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康・医療</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新年会</t>
+    <rPh sb="0" eb="3">
+      <t>シンネンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>映画</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯医者</t>
+    <rPh sb="0" eb="3">
+      <t>ハイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキンガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -114,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +219,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +250,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -172,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,25 +303,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -536,57 +666,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>200000</v>
       </c>
-      <c r="B4" s="8">
-        <f>SUM(C7:C10)</f>
-        <v>58650</v>
+      <c r="B4" s="7">
+        <f>SUM(C7:C18)</f>
+        <v>165910</v>
       </c>
       <c r="C4" s="2">
         <f>A4-B4</f>
-        <v>141350</v>
+        <v>34090</v>
+      </c>
+      <c r="E4" s="2">
+        <f>A4*0.8</f>
+        <v>160000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44927</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -595,13 +732,16 @@
       <c r="C7" s="3">
         <v>35000</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f>C7</f>
+        <v>35000</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44928</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -610,11 +750,14 @@
       <c r="C8" s="3">
         <v>20000</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>D7+C8</f>
+        <v>55000</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>44928</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -623,21 +766,568 @@
       <c r="C9" s="3">
         <v>3650</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <f>D8+C9</f>
+        <v>58650</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="6">
+        <v>44931</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>61650</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>44934</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>800</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>62450</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>44934</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>66450</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>44936</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4200</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>70650</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>72450</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>44939</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>85250</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>44941</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>75400</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>160650</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>44944</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5260</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>165910</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A6:E17"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7">
+        <f>SUM(C7:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7">
+        <f>SUM(C7:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
